--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/20/seed5/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.790000000000001</v>
+        <v>-7.728999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>17.25</v>
@@ -485,10 +485,10 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-10.954</v>
+        <v>-11.425</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.514</v>
+        <v>-7.281999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.372</v>
+        <v>-12.943</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -590,7 +590,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.578</v>
+        <v>-7.162000000000001</v>
       </c>
       <c r="E9" t="n">
         <v>17.64</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-22.036</v>
+        <v>-21.81</v>
       </c>
       <c r="B11" t="n">
         <v>3.8</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.694</v>
+        <v>-21.669</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.118</v>
+        <v>-12.543</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-22.192</v>
+        <v>-22.015</v>
       </c>
       <c r="B15" t="n">
         <v>5.32</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.68</v>
+        <v>-8.016000000000002</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.886000000000001</v>
+        <v>-8.135999999999999</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.239999999999998</v>
+        <v>-7.825</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.491999999999999</v>
+        <v>-7.906000000000001</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-13.488</v>
+        <v>-12.868</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.98</v>
+        <v>-21.749</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.641999999999999</v>
+        <v>-8.119</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.104</v>
+        <v>-21.875</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -913,7 +913,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.154</v>
+        <v>-7.85</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.084000000000001</v>
+        <v>-7.202</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -955,13 +955,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-21.812</v>
+        <v>-21.96</v>
       </c>
       <c r="B31" t="n">
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.054</v>
+        <v>-13.342</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.506</v>
+        <v>-21.717</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.186</v>
+        <v>-7.739999999999999</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.758</v>
+        <v>-12.288</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.048</v>
+        <v>-20.257</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-14.382</v>
+        <v>-13.38</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.33</v>
+        <v>-19.696</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.886</v>
+        <v>-12.745</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-13.506</v>
+        <v>-12.989</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.973999999999999</v>
+        <v>-7.904999999999999</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.632</v>
+        <v>-12.569</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-22.006</v>
+        <v>-21.883</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.378</v>
+        <v>-7.367</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.596</v>
+        <v>-11.363</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.66</v>
+        <v>-22.15</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.252</v>
+        <v>-22.21</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.19</v>
+        <v>-21.997</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.706</v>
+        <v>-13.337</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-7.752</v>
+        <v>-8.218</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1491,7 +1491,7 @@
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-8.283999999999999</v>
+        <v>-7.994</v>
       </c>
       <c r="E62" t="n">
         <v>16.65</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.62</v>
+        <v>-21.517</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.606</v>
+        <v>-21.637</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.616</v>
+        <v>-21.481</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.942</v>
+        <v>-19.973</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1746,7 +1746,7 @@
         <v>-9.57</v>
       </c>
       <c r="D77" t="n">
-        <v>-7.414</v>
+        <v>-7.949000000000001</v>
       </c>
       <c r="E77" t="n">
         <v>17.96</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.032</v>
+        <v>-7.972999999999999</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.884</v>
+        <v>-13.335</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.498</v>
+        <v>-21.628</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-12.926</v>
+        <v>-12.893</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.056000000000001</v>
+        <v>-8.019</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-22.496</v>
+        <v>-22.257</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.662000000000001</v>
+        <v>-6.946</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.47</v>
+        <v>-21.584</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.55</v>
+        <v>-7.053</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.919999999999999</v>
+        <v>-6.746</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.9</v>
+        <v>-21.547</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.074</v>
+        <v>-7.297</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.64</v>
+        <v>-19.854</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-13.208</v>
+        <v>-12.638</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,10 +2168,10 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.918</v>
+        <v>-13.281</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.74</v>
+        <v>-8.026999999999999</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
